--- a/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Events/LocalizationDef.xlsx
+++ b/InstallOptions/Localization/CustomLocalization-RU/Localization/RogueTech/RU/Events/LocalizationDef.xlsx
@@ -7851,15 +7851,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1295" workbookViewId="0">
-      <selection activeCell="C1317" sqref="C1317"/>
+    <sheetView tabSelected="1" topLeftCell="A1283" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="82" style="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="9.140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
